--- a/released_outputs/table2_hr.xlsx
+++ b/released_outputs/table2_hr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>Table 2: Hazard ratios for VOC vs. non-VOC</t>
   </si>
@@ -78,6 +78,24 @@
     <t>Not white</t>
   </si>
   <si>
+    <t>IMD</t>
+  </si>
+  <si>
+    <t>1 Least deprived</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5 Most deprived</t>
+  </si>
+  <si>
     <t>Age group</t>
   </si>
   <si>
@@ -156,6 +174,21 @@
     <t>1.80 (1.12-2.90)</t>
   </si>
   <si>
+    <t>2.33 (1.43-3.80)</t>
+  </si>
+  <si>
+    <t>1.41 (0.85-2.37)</t>
+  </si>
+  <si>
+    <t>1.55 (0.99-2.43)</t>
+  </si>
+  <si>
+    <t>1.97 (1.25-3.08)</t>
+  </si>
+  <si>
+    <t>1.61 (1.04-2.47)</t>
+  </si>
+  <si>
     <t>1.82 (1.21-2.73)</t>
   </si>
   <si>
@@ -223,6 +256,24 @@
   </si>
   <si>
     <t>0.0152</t>
+  </si>
+  <si>
+    <t>0.5479</t>
+  </si>
+  <si>
+    <t>0.0007</t>
+  </si>
+  <si>
+    <t>0.1867</t>
+  </si>
+  <si>
+    <t>0.0555</t>
+  </si>
+  <si>
+    <t>0.0032</t>
+  </si>
+  <si>
+    <t>0.0308</t>
   </si>
   <si>
     <t>0.6864</t>
@@ -278,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -286,10 +337,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -297,10 +348,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -308,10 +359,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -319,10 +370,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -330,10 +381,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -341,10 +392,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -352,10 +403,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -363,10 +414,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -374,10 +425,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -385,10 +436,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -396,10 +447,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -407,10 +458,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -418,10 +469,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -429,10 +480,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -440,10 +491,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -451,10 +502,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -462,10 +513,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -473,10 +524,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -484,10 +535,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -495,10 +546,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -506,10 +557,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -517,10 +568,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -528,10 +579,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -539,10 +590,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -550,10 +601,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -561,10 +612,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -572,10 +623,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -583,10 +634,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -594,10 +645,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -605,10 +656,76 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/released_outputs/table2_hr.xlsx
+++ b/released_outputs/table2_hr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>Table 2: Hazard ratios for VOC vs. non-VOC</t>
   </si>
@@ -120,6 +120,9 @@
     <t>Excluding week 1</t>
   </si>
   <si>
+    <t>No care home adj.</t>
+  </si>
+  <si>
     <t>Causal min. adjustment</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
   </si>
   <si>
     <t>1.76 (1.35-2.29)</t>
+  </si>
+  <si>
+    <t>1.73 (1.35-2.23)</t>
   </si>
   <si>
     <t>1.70 (1.41-2.05)</t>
@@ -329,7 +335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -337,10 +343,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -348,10 +354,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -359,10 +365,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -370,10 +376,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -381,10 +387,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -392,10 +398,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -403,10 +409,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -414,10 +420,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -425,10 +431,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -436,10 +442,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -447,10 +453,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -458,10 +464,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -469,10 +475,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -480,10 +486,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -491,10 +497,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -502,10 +508,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -513,10 +519,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -524,10 +530,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -535,10 +541,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -546,10 +552,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -557,10 +563,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -568,10 +574,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -579,10 +585,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -590,10 +596,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -601,10 +607,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -612,10 +618,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -623,10 +629,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -634,10 +640,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -645,10 +651,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -656,10 +662,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -667,10 +673,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -678,10 +684,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -689,10 +695,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -700,10 +706,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
@@ -711,10 +717,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -722,10 +728,21 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/released_outputs/table2_hr.xlsx
+++ b/released_outputs/table2_hr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <si>
     <t>Table 2: Hazard ratios for VOC vs. non-VOC</t>
   </si>
@@ -69,6 +69,9 @@
     <t>2+</t>
   </si>
   <si>
+    <t>Per unit increase</t>
+  </si>
+  <si>
     <t>Ethnicity</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>2.07 (1.50-2.86)</t>
   </si>
   <si>
+    <t>1.24 (0.99-1.57)</t>
+  </si>
+  <si>
     <t>1.73 (1.32-2.26)</t>
   </si>
   <si>
@@ -253,6 +259,9 @@
   </si>
   <si>
     <t>0.0105</t>
+  </si>
+  <si>
+    <t>0.0645</t>
   </si>
   <si>
     <t>0.8669</t>
@@ -335,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -343,10 +352,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -354,10 +363,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -365,10 +374,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -376,10 +385,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -387,10 +396,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -398,10 +407,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -409,10 +418,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -420,10 +429,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -431,10 +440,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -442,10 +451,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -453,10 +462,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -464,10 +473,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -475,10 +484,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -486,10 +495,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -497,10 +506,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -508,10 +517,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -519,10 +528,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -530,10 +539,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -541,10 +550,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -552,10 +561,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -563,10 +572,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -574,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -585,10 +594,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -596,10 +605,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -607,10 +616,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -618,10 +627,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -629,10 +638,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -640,10 +649,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -651,10 +660,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -662,10 +671,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
@@ -673,10 +682,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -684,10 +693,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -695,10 +704,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -706,10 +715,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -717,10 +726,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -728,10 +737,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -739,10 +748,21 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/released_outputs/table2_hr.xlsx
+++ b/released_outputs/table2_hr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>Table 2: Hazard ratios for VOC vs. non-VOC</t>
   </si>
@@ -24,6 +24,12 @@
     <t>Unadjusted</t>
   </si>
   <si>
+    <t>Age adj.</t>
+  </si>
+  <si>
+    <t>Comorbidity adj.</t>
+  </si>
+  <si>
     <t>Demographically adj.</t>
   </si>
   <si>
@@ -138,6 +144,12 @@
     <t>1.21 (1.01-1.45)</t>
   </si>
   <si>
+    <t>1.72 (1.40-2.13)</t>
+  </si>
+  <si>
+    <t>1.45 (1.18-1.78)</t>
+  </si>
+  <si>
     <t>1.75 (1.36-2.25)</t>
   </si>
   <si>
@@ -198,6 +210,9 @@
     <t>1.61 (1.04-2.47)</t>
   </si>
   <si>
+    <t>1.52 (0.99-2.32)</t>
+  </si>
+  <si>
     <t>1.82 (1.21-2.73)</t>
   </si>
   <si>
@@ -228,6 +243,9 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>0.0005</t>
+  </si>
+  <si>
     <t>0.9031</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
   </si>
   <si>
     <t>0.6864</t>
+  </si>
+  <si>
+    <t>0.0553</t>
   </si>
   <si>
     <t>0.0037</t>
@@ -344,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -352,10 +373,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -363,10 +384,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -374,10 +395,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -385,10 +406,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -396,10 +417,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -407,10 +428,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -418,10 +439,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -429,10 +450,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -440,10 +461,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -451,10 +472,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -462,10 +483,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -473,10 +494,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -484,10 +505,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -495,10 +516,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -506,10 +527,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -517,10 +538,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -528,10 +549,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -539,10 +560,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -550,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -561,10 +582,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -572,10 +593,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -583,10 +604,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -594,10 +615,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -605,10 +626,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -616,10 +637,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -627,10 +648,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -638,10 +659,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -649,10 +670,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -660,10 +681,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -671,10 +692,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -682,10 +703,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -693,10 +714,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -704,10 +725,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -715,10 +736,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -726,10 +747,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -737,10 +758,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -748,10 +769,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -759,10 +780,32 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/released_outputs/table2_hr.xlsx
+++ b/released_outputs/table2_hr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>Table 2: Hazard ratios for VOC vs. non-VOC</t>
   </si>
@@ -27,7 +27,7 @@
     <t>Age adj.</t>
   </si>
   <si>
-    <t>Comorbidity adj.</t>
+    <t>Age + comorb adj.</t>
   </si>
   <si>
     <t>Demographically adj.</t>
@@ -42,10 +42,7 @@
     <t>Epi. week</t>
   </si>
   <si>
-    <t>16Nov-22Nov</t>
-  </si>
-  <si>
-    <t>23Nov-29Nov</t>
+    <t>16Nov-29Nov</t>
   </si>
   <si>
     <t>30Nov-06Dec</t>
@@ -60,7 +57,10 @@
     <t>21Dec-27Dec</t>
   </si>
   <si>
-    <t>28Dec-04Jan</t>
+    <t>28Dec-03Jan</t>
+  </si>
+  <si>
+    <t>04Jan-11Jan</t>
   </si>
   <si>
     <t>Comorbidities</t>
@@ -120,6 +120,9 @@
     <t>85+</t>
   </si>
   <si>
+    <t>Per group increase</t>
+  </si>
+  <si>
     <t>Sensitivity analyses</t>
   </si>
   <si>
@@ -141,187 +144,181 @@
     <t>HR (95% CI)</t>
   </si>
   <si>
-    <t>1.21 (1.01-1.45)</t>
-  </si>
-  <si>
-    <t>1.72 (1.40-2.13)</t>
-  </si>
-  <si>
-    <t>1.45 (1.18-1.78)</t>
-  </si>
-  <si>
-    <t>1.75 (1.36-2.25)</t>
-  </si>
-  <si>
-    <t>1.74 (1.35-2.24)</t>
-  </si>
-  <si>
-    <t>0.98 (0.30-3.25)</t>
-  </si>
-  <si>
-    <t>1.82 (0.62-5.30)</t>
-  </si>
-  <si>
-    <t>1.59 (0.76-3.32)</t>
-  </si>
-  <si>
-    <t>1.45 (0.78-2.69)</t>
-  </si>
-  <si>
-    <t>1.91 (1.03-3.55)</t>
-  </si>
-  <si>
-    <t>2.12 (1.28-3.51)</t>
-  </si>
-  <si>
-    <t>1.79 (1.16-2.76)</t>
-  </si>
-  <si>
-    <t>1.33 (0.89-2.01)</t>
-  </si>
-  <si>
-    <t>1.67 (1.13-2.47)</t>
-  </si>
-  <si>
-    <t>2.07 (1.50-2.86)</t>
-  </si>
-  <si>
-    <t>1.24 (0.99-1.57)</t>
-  </si>
-  <si>
-    <t>1.73 (1.32-2.26)</t>
-  </si>
-  <si>
-    <t>1.80 (1.12-2.90)</t>
-  </si>
-  <si>
-    <t>2.33 (1.43-3.80)</t>
-  </si>
-  <si>
-    <t>1.41 (0.85-2.37)</t>
-  </si>
-  <si>
-    <t>1.55 (0.99-2.43)</t>
-  </si>
-  <si>
-    <t>1.97 (1.25-3.08)</t>
-  </si>
-  <si>
-    <t>1.61 (1.04-2.47)</t>
-  </si>
-  <si>
-    <t>1.52 (0.99-2.32)</t>
-  </si>
-  <si>
-    <t>1.82 (1.21-2.73)</t>
-  </si>
-  <si>
-    <t>2.07 (1.39-3.09)</t>
-  </si>
-  <si>
-    <t>1.62 (1.03-2.57)</t>
-  </si>
-  <si>
-    <t>1.76 (1.35-2.30)</t>
-  </si>
-  <si>
-    <t>1.76 (1.35-2.29)</t>
-  </si>
-  <si>
-    <t>1.73 (1.35-2.23)</t>
-  </si>
-  <si>
-    <t>1.70 (1.41-2.05)</t>
+    <t>1.27 (1.09-1.48)</t>
+  </si>
+  <si>
+    <t>1.66 (1.39-1.98)</t>
+  </si>
+  <si>
+    <t>1.68 (1.35-2.10)</t>
+  </si>
+  <si>
+    <t>1.67 (1.34-2.09)</t>
+  </si>
+  <si>
+    <t>1.32 (0.60-2.93)</t>
+  </si>
+  <si>
+    <t>1.76 (0.85-3.65)</t>
+  </si>
+  <si>
+    <t>1.32 (0.71-2.44)</t>
+  </si>
+  <si>
+    <t>1.83 (1.01-3.31)</t>
+  </si>
+  <si>
+    <t>2.16 (1.32-3.52)</t>
+  </si>
+  <si>
+    <t>1.74 (1.12-2.69)</t>
+  </si>
+  <si>
+    <t>1.49 (0.95-2.34)</t>
+  </si>
+  <si>
+    <t>1.50 (1.05-2.14)</t>
+  </si>
+  <si>
+    <t>1.78 (1.27-2.47)</t>
+  </si>
+  <si>
+    <t>1.71 (1.28-2.28)</t>
+  </si>
+  <si>
+    <t>1.06 (0.87-1.30)</t>
+  </si>
+  <si>
+    <t>1.63 (1.29-2.06)</t>
+  </si>
+  <si>
+    <t>1.88 (1.23-2.87)</t>
+  </si>
+  <si>
+    <t>2.17 (1.42-3.31)</t>
+  </si>
+  <si>
+    <t>1.34 (0.85-2.10)</t>
+  </si>
+  <si>
+    <t>1.58 (1.05-2.36)</t>
+  </si>
+  <si>
+    <t>1.88 (1.28-2.76)</t>
+  </si>
+  <si>
+    <t>1.50 (1.04-2.17)</t>
+  </si>
+  <si>
+    <t>1.61 (1.11-2.34)</t>
+  </si>
+  <si>
+    <t>1.64 (1.15-2.36)</t>
+  </si>
+  <si>
+    <t>1.61 (1.13-2.29)</t>
+  </si>
+  <si>
+    <t>1.94 (1.34-2.81)</t>
+  </si>
+  <si>
+    <t>1.09 (0.95-1.26)</t>
+  </si>
+  <si>
+    <t>1.71 (1.36-2.15)</t>
+  </si>
+  <si>
+    <t>1.67 (1.33-2.10)</t>
+  </si>
+  <si>
+    <t>1.66 (1.33-2.07)</t>
+  </si>
+  <si>
+    <t>1.64 (1.41-1.91)</t>
   </si>
   <si>
     <t>P-value</t>
   </si>
   <si>
-    <t>0.0391</t>
+    <t>0.0021</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
+    <t>0.8779</t>
+  </si>
+  <si>
+    <t>0.4869</t>
+  </si>
+  <si>
+    <t>0.1285</t>
+  </si>
+  <si>
+    <t>0.3791</t>
+  </si>
+  <si>
+    <t>0.0465</t>
+  </si>
+  <si>
+    <t>0.0130</t>
+  </si>
+  <si>
+    <t>0.0848</t>
+  </si>
+  <si>
+    <t>0.7331</t>
+  </si>
+  <si>
+    <t>0.0265</t>
+  </si>
+  <si>
+    <t>0.0007</t>
+  </si>
+  <si>
+    <t>0.0003</t>
+  </si>
+  <si>
+    <t>0.5645</t>
+  </si>
+  <si>
+    <t>0.5215</t>
+  </si>
+  <si>
+    <t>0.0034</t>
+  </si>
+  <si>
+    <t>0.4590</t>
+  </si>
+  <si>
+    <t>0.2047</t>
+  </si>
+  <si>
+    <t>0.0268</t>
+  </si>
+  <si>
+    <t>0.0013</t>
+  </si>
+  <si>
+    <t>0.0310</t>
+  </si>
+  <si>
+    <t>0.8521</t>
+  </si>
+  <si>
+    <t>0.0115</t>
+  </si>
+  <si>
+    <t>0.0070</t>
+  </si>
+  <si>
+    <t>0.0086</t>
+  </si>
+  <si>
     <t>0.0005</t>
   </si>
   <si>
-    <t>0.9031</t>
-  </si>
-  <si>
-    <t>0.9740</t>
-  </si>
-  <si>
-    <t>0.2723</t>
-  </si>
-  <si>
-    <t>0.2145</t>
-  </si>
-  <si>
-    <t>0.2463</t>
-  </si>
-  <si>
-    <t>0.0392</t>
-  </si>
-  <si>
-    <t>0.0035</t>
-  </si>
-  <si>
-    <t>0.0088</t>
-  </si>
-  <si>
-    <t>0.1734</t>
-  </si>
-  <si>
-    <t>0.1687</t>
-  </si>
-  <si>
-    <t>0.0105</t>
-  </si>
-  <si>
-    <t>0.0645</t>
-  </si>
-  <si>
-    <t>0.8669</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-  <si>
-    <t>0.0152</t>
-  </si>
-  <si>
-    <t>0.5479</t>
-  </si>
-  <si>
-    <t>0.0007</t>
-  </si>
-  <si>
-    <t>0.1867</t>
-  </si>
-  <si>
-    <t>0.0555</t>
-  </si>
-  <si>
-    <t>0.0032</t>
-  </si>
-  <si>
-    <t>0.0308</t>
-  </si>
-  <si>
-    <t>0.6864</t>
-  </si>
-  <si>
-    <t>0.0553</t>
-  </si>
-  <si>
-    <t>0.0037</t>
-  </si>
-  <si>
-    <t>0.0004</t>
-  </si>
-  <si>
-    <t>0.0376</t>
+    <t>0.2005</t>
   </si>
 </sst>
 </file>
@@ -365,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -373,10 +370,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -384,10 +381,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -395,10 +392,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -406,10 +403,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +428,7 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -442,7 +439,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -450,10 +447,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -461,7 +458,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -519,7 +516,7 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -530,7 +527,7 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -541,7 +538,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -549,10 +546,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -563,7 +560,7 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +571,7 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -585,7 +582,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +601,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>89</v>
@@ -618,7 +615,7 @@
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -629,7 +626,7 @@
         <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -637,10 +634,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -651,7 +648,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -662,7 +659,7 @@
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -673,7 +670,7 @@
         <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -684,7 +681,7 @@
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -695,7 +692,7 @@
         <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -703,10 +700,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -717,7 +714,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -728,7 +725,7 @@
         <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -739,7 +736,7 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -750,7 +747,7 @@
         <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -758,10 +755,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -769,10 +766,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -783,7 +780,7 @@
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -794,7 +791,7 @@
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
@@ -805,7 +802,18 @@
         <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/released_outputs/table2_hr.xlsx
+++ b/released_outputs/table2_hr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>Table 2: Hazard ratios for VOC vs. non-VOC</t>
   </si>
@@ -135,6 +135,9 @@
     <t>No care home adj.</t>
   </si>
   <si>
+    <t>Exluding NE/SE</t>
+  </si>
+  <si>
     <t>Causal min. adjustment</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
   </si>
   <si>
     <t>1.66 (1.33-2.07)</t>
+  </si>
+  <si>
+    <t>1.66 (1.32-2.09)</t>
   </si>
   <si>
     <t>1.64 (1.41-1.91)</t>
@@ -362,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -370,10 +376,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -381,10 +387,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -392,10 +398,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -403,10 +409,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -414,10 +420,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -425,10 +431,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -436,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -447,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -458,10 +464,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -469,10 +475,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -480,10 +486,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -491,10 +497,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -502,10 +508,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -513,10 +519,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -524,10 +530,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -535,10 +541,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -546,10 +552,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -557,10 +563,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -568,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -579,10 +585,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -590,10 +596,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -601,10 +607,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -612,10 +618,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -623,10 +629,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -634,10 +640,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -645,10 +651,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -656,10 +662,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -667,10 +673,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -678,10 +684,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -689,10 +695,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -700,10 +706,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -711,10 +717,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -722,10 +728,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -733,10 +739,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -744,10 +750,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -755,10 +761,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -766,10 +772,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -777,10 +783,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -788,10 +794,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -799,10 +805,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -810,10 +816,21 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/released_outputs/table2_hr.xlsx
+++ b/released_outputs/table2_hr.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
   <si>
     <t>Table 2: Hazard ratios for VOC vs. non-VOC</t>
   </si>
@@ -126,7 +126,10 @@
     <t>Sensitivity analyses</t>
   </si>
   <si>
-    <t>Min. 28-days follow-up</t>
+    <t>28-day follow-up censor</t>
+  </si>
+  <si>
+    <t>Min. 40-days follow-up</t>
   </si>
   <si>
     <t>Excluding week 1</t>
@@ -147,184 +150,181 @@
     <t>HR (95% CI)</t>
   </si>
   <si>
-    <t>1.27 (1.09-1.48)</t>
-  </si>
-  <si>
-    <t>1.66 (1.39-1.98)</t>
-  </si>
-  <si>
-    <t>1.68 (1.35-2.10)</t>
-  </si>
-  <si>
-    <t>1.67 (1.34-2.09)</t>
-  </si>
-  <si>
-    <t>1.32 (0.60-2.93)</t>
-  </si>
-  <si>
-    <t>1.76 (0.85-3.65)</t>
-  </si>
-  <si>
-    <t>1.32 (0.71-2.44)</t>
-  </si>
-  <si>
-    <t>1.83 (1.01-3.31)</t>
-  </si>
-  <si>
-    <t>2.16 (1.32-3.52)</t>
-  </si>
-  <si>
-    <t>1.74 (1.12-2.69)</t>
-  </si>
-  <si>
-    <t>1.49 (0.95-2.34)</t>
-  </si>
-  <si>
-    <t>1.50 (1.05-2.14)</t>
-  </si>
-  <si>
-    <t>1.78 (1.27-2.47)</t>
-  </si>
-  <si>
-    <t>1.71 (1.28-2.28)</t>
-  </si>
-  <si>
-    <t>1.06 (0.87-1.30)</t>
-  </si>
-  <si>
-    <t>1.63 (1.29-2.06)</t>
-  </si>
-  <si>
-    <t>1.88 (1.23-2.87)</t>
-  </si>
-  <si>
-    <t>2.17 (1.42-3.31)</t>
-  </si>
-  <si>
-    <t>1.34 (0.85-2.10)</t>
-  </si>
-  <si>
-    <t>1.58 (1.05-2.36)</t>
-  </si>
-  <si>
-    <t>1.88 (1.28-2.76)</t>
-  </si>
-  <si>
-    <t>1.50 (1.04-2.17)</t>
-  </si>
-  <si>
-    <t>1.61 (1.11-2.34)</t>
-  </si>
-  <si>
-    <t>1.64 (1.15-2.36)</t>
-  </si>
-  <si>
-    <t>1.61 (1.13-2.29)</t>
-  </si>
-  <si>
-    <t>1.94 (1.34-2.81)</t>
-  </si>
-  <si>
-    <t>1.09 (0.95-1.26)</t>
-  </si>
-  <si>
-    <t>1.71 (1.36-2.15)</t>
-  </si>
-  <si>
-    <t>1.67 (1.33-2.10)</t>
-  </si>
-  <si>
-    <t>1.66 (1.33-2.07)</t>
-  </si>
-  <si>
-    <t>1.66 (1.32-2.09)</t>
-  </si>
-  <si>
-    <t>1.64 (1.41-1.91)</t>
+    <t>1.34 (1.16-1.54)</t>
+  </si>
+  <si>
+    <t>1.73 (1.50-1.99)</t>
+  </si>
+  <si>
+    <t>1.75 (1.51-2.01)</t>
+  </si>
+  <si>
+    <t>1.73 (1.40-2.13)</t>
+  </si>
+  <si>
+    <t>1.73 (1.41-2.13)</t>
+  </si>
+  <si>
+    <t>1.55 (0.74-3.26)</t>
+  </si>
+  <si>
+    <t>1.87 (0.94-3.73)</t>
+  </si>
+  <si>
+    <t>1.48 (0.83-2.62)</t>
+  </si>
+  <si>
+    <t>1.75 (0.99-3.10)</t>
+  </si>
+  <si>
+    <t>2.44 (1.56-3.83)</t>
+  </si>
+  <si>
+    <t>1.65 (1.08-2.53)</t>
+  </si>
+  <si>
+    <t>1.49 (1.01-2.19)</t>
+  </si>
+  <si>
+    <t>1.67 (1.21-2.31)</t>
+  </si>
+  <si>
+    <t>1.62 (1.17-2.24)</t>
+  </si>
+  <si>
+    <t>1.84 (1.41-2.41)</t>
+  </si>
+  <si>
+    <t>1.05 (0.87-1.27)</t>
+  </si>
+  <si>
+    <t>1.70 (1.37-2.12)</t>
+  </si>
+  <si>
+    <t>1.86 (1.26-2.76)</t>
+  </si>
+  <si>
+    <t>2.13 (1.43-3.17)</t>
+  </si>
+  <si>
+    <t>1.24 (0.81-1.88)</t>
+  </si>
+  <si>
+    <t>1.70 (1.16-2.49)</t>
+  </si>
+  <si>
+    <t>1.97 (1.38-2.82)</t>
+  </si>
+  <si>
+    <t>1.67 (1.18-2.35)</t>
+  </si>
+  <si>
+    <t>1.68 (1.19-2.36)</t>
+  </si>
+  <si>
+    <t>1.84 (1.31-2.57)</t>
+  </si>
+  <si>
+    <t>1.57 (1.12-2.21)</t>
+  </si>
+  <si>
+    <t>1.98 (1.39-2.81)</t>
+  </si>
+  <si>
+    <t>1.08 (0.95-1.23)</t>
+  </si>
+  <si>
+    <t>1.73 (1.37-2.17)</t>
+  </si>
+  <si>
+    <t>1.72 (1.39-2.13)</t>
+  </si>
+  <si>
+    <t>1.72 (1.40-2.12)</t>
+  </si>
+  <si>
+    <t>1.71 (1.38-2.11)</t>
+  </si>
+  <si>
+    <t>1.79 (1.55-2.07)</t>
   </si>
   <si>
     <t>P-value</t>
   </si>
   <si>
-    <t>0.0021</t>
+    <t>0.0001</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
-    <t>0.8779</t>
-  </si>
-  <si>
-    <t>0.4869</t>
-  </si>
-  <si>
-    <t>0.1285</t>
-  </si>
-  <si>
-    <t>0.3791</t>
-  </si>
-  <si>
-    <t>0.0465</t>
-  </si>
-  <si>
-    <t>0.0130</t>
-  </si>
-  <si>
-    <t>0.0848</t>
-  </si>
-  <si>
-    <t>0.7331</t>
-  </si>
-  <si>
-    <t>0.0265</t>
-  </si>
-  <si>
-    <t>0.0007</t>
-  </si>
-  <si>
-    <t>0.0003</t>
-  </si>
-  <si>
-    <t>0.5645</t>
-  </si>
-  <si>
-    <t>0.5215</t>
+    <t>0.7437</t>
+  </si>
+  <si>
+    <t>0.2460</t>
+  </si>
+  <si>
+    <t>0.0762</t>
+  </si>
+  <si>
+    <t>0.1822</t>
+  </si>
+  <si>
+    <t>0.0558</t>
+  </si>
+  <si>
+    <t>0.0214</t>
+  </si>
+  <si>
+    <t>0.0471</t>
+  </si>
+  <si>
+    <t>0.7785</t>
+  </si>
+  <si>
+    <t>0.0019</t>
+  </si>
+  <si>
+    <t>0.0033</t>
+  </si>
+  <si>
+    <t>0.6013</t>
+  </si>
+  <si>
+    <t>0.6603</t>
+  </si>
+  <si>
+    <t>0.0018</t>
+  </si>
+  <si>
+    <t>0.3339</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t>0.3218</t>
+  </si>
+  <si>
+    <t>0.0069</t>
   </si>
   <si>
     <t>0.0034</t>
   </si>
   <si>
-    <t>0.4590</t>
-  </si>
-  <si>
-    <t>0.2047</t>
-  </si>
-  <si>
-    <t>0.0268</t>
-  </si>
-  <si>
-    <t>0.0013</t>
-  </si>
-  <si>
-    <t>0.0310</t>
-  </si>
-  <si>
-    <t>0.8521</t>
-  </si>
-  <si>
-    <t>0.0115</t>
-  </si>
-  <si>
-    <t>0.0070</t>
-  </si>
-  <si>
-    <t>0.0086</t>
-  </si>
-  <si>
-    <t>0.0005</t>
-  </si>
-  <si>
-    <t>0.2005</t>
+    <t>0.7636</t>
+  </si>
+  <si>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t>0.0004</t>
+  </si>
+  <si>
+    <t>0.0089</t>
+  </si>
+  <si>
+    <t>0.2309</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -376,10 +376,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -387,10 +387,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -409,10 +409,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -431,10 +431,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -464,10 +464,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -475,10 +475,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -486,10 +486,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +497,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -508,10 +508,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -519,10 +519,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -530,10 +530,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -541,10 +541,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -552,10 +552,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -563,10 +563,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -574,10 +574,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -585,10 +585,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -596,10 +596,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -607,10 +607,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -618,10 +618,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -629,10 +629,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -640,10 +640,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -651,10 +651,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -662,10 +662,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -673,10 +673,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -684,10 +684,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -695,10 +695,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -706,10 +706,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -717,10 +717,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -728,10 +728,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -739,10 +739,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -750,10 +750,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -761,7 +761,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
         <v>103</v>
@@ -772,10 +772,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -783,10 +783,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -794,10 +794,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -805,10 +805,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -816,10 +816,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -827,10 +827,21 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
